--- a/strategy/全球购策略/data/产品历史占比.xlsx
+++ b/strategy/全球购策略/data/产品历史占比.xlsx
@@ -170,9 +170,9 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,19 +243,15 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6993"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -611,7 +607,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
-        <f ca="1">[1]!TDays("2019-7-1",TODAY()-1)</f>
+        <f ca="1">[1]!TDays("2019-7-1",TODAY()-1,"cols=1;rows=89")</f>
         <v>43647</v>
       </c>
       <c r="B3" s="4">
@@ -2211,34 +2207,185 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>43767</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="5"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="5"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="5"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="5"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="5"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="5"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="5"/>
+      <c r="B83" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>43768</v>
+      </c>
+      <c r="B84" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F84" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>43769</v>
+      </c>
+      <c r="B85" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C85" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>43770</v>
+      </c>
+      <c r="B86" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>43773</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>43774</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F88" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>43775</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>43776</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C90" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>43777</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C91" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F91" s="4">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="5"/>
@@ -22954,10 +23101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K261"/>
+  <dimension ref="A1:K269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:K2"/>
+    <sheetView topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="B260" sqref="B260:K269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -32067,6 +32214,316 @@
       <c r="A261" s="5">
         <v>43767</v>
       </c>
+      <c r="B261" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="C261" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="D261" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="E261" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="F261" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="G261" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="H261" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="I261" s="10">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="J261" s="10">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="K261" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A262" s="5">
+        <v>43768</v>
+      </c>
+      <c r="B262" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="C262" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="D262" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="E262" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="F262" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="G262" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="H262" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="I262" s="10">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="J262" s="10">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="K262" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A263" s="5">
+        <v>43769</v>
+      </c>
+      <c r="B263" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="C263" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="D263" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="E263" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="F263" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="G263" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="H263" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="I263" s="10">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="J263" s="10">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="K263" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A264" s="5">
+        <v>43770</v>
+      </c>
+      <c r="B264" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="C264" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="D264" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="E264" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="F264" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="G264" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="H264" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="I264" s="10">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="J264" s="10">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="K264" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A265" s="5">
+        <v>43773</v>
+      </c>
+      <c r="B265" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="C265" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="D265" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="E265" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="F265" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="G265" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="H265" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="I265" s="10">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="J265" s="10">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="K265" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A266" s="5">
+        <v>43774</v>
+      </c>
+      <c r="B266" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="C266" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="D266" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="E266" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="F266" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="G266" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="H266" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="I266" s="10">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="J266" s="10">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="K266" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A267" s="5">
+        <v>43775</v>
+      </c>
+      <c r="B267" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="C267" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="D267" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="E267" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="F267" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="G267" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="H267" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="I267" s="10">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="J267" s="10">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="K267" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A268" s="5">
+        <v>43776</v>
+      </c>
+      <c r="B268" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="C268" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="D268" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="E268" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="F268" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="G268" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="H268" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="I268" s="10">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="J268" s="10">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="K268" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A269" s="5">
+        <v>43777</v>
+      </c>
+      <c r="B269" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="C269" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="D269" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="E269" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="F269" s="10">
+        <v>7.5757578015327454E-2</v>
+      </c>
+      <c r="G269" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="H269" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
+      <c r="I269" s="10">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="J269" s="10">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="K269" s="10">
+        <v>5.0000000745058053E-2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32076,10 +32533,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1421"/>
+  <dimension ref="A1:E1429"/>
   <sheetViews>
     <sheetView topLeftCell="A1401" workbookViewId="0">
-      <selection activeCell="B1417" sqref="B1417:E1420"/>
+      <selection activeCell="B1417" sqref="B1417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -56224,9 +56681,157 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="1421" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1421" s="5">
         <v>43767</v>
+      </c>
+      <c r="B1421" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C1421" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D1421" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E1421" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1422" s="5">
+        <v>43768</v>
+      </c>
+      <c r="B1422" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C1422" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D1422" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E1422" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1423" s="5">
+        <v>43769</v>
+      </c>
+      <c r="B1423" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C1423" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D1423" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E1423" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1424" s="5">
+        <v>43770</v>
+      </c>
+      <c r="B1424" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C1424" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D1424" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E1424" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1425" s="5">
+        <v>43773</v>
+      </c>
+      <c r="B1425" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C1425" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D1425" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E1425" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1426" s="5">
+        <v>43774</v>
+      </c>
+      <c r="B1426" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C1426" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D1426" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E1426" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1427" s="5">
+        <v>43775</v>
+      </c>
+      <c r="B1427" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C1427" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D1427" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E1427" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1428" s="5">
+        <v>43776</v>
+      </c>
+      <c r="B1428" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C1428" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D1428" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E1428" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1429" s="5">
+        <v>43777</v>
+      </c>
+      <c r="B1429" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C1429" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="D1429" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E1429" s="4">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -56237,23 +56842,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
@@ -56270,7 +56876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -56288,5184 +56894,43 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="16">
-        <f ca="1">[1]!TDays("2018-10-01",TODAY()-1,"cols=1;rows=259")</f>
-        <v>43381</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.28985506296157842</v>
+      <c r="A3" s="5">
+        <v>43776</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.224561408162117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="16">
-        <v>43382</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="16">
-        <v>43383</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
-        <v>43384</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="16">
-        <v>43385</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="16">
-        <v>43388</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="16">
-        <v>43389</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="16">
-        <v>43390</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="16">
-        <v>43391</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="16">
-        <v>43392</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="16">
-        <v>43395</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="16">
-        <v>43396</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="16">
-        <v>43397</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="16">
-        <v>43398</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="16">
-        <v>43399</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="16">
-        <v>43402</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="16">
-        <v>43403</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="16">
-        <v>43404</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="16">
-        <v>43405</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="16">
-        <v>43406</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="16">
-        <v>43409</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="16">
-        <v>43410</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="16">
-        <v>43411</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="16">
-        <v>43412</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="16">
-        <v>43413</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="16">
-        <v>43416</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="16">
-        <v>43417</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="16">
-        <v>43418</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="16">
-        <v>43419</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="16">
-        <v>43420</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="16">
-        <v>43423</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F33" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="16">
-        <v>43424</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F34" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="16">
-        <v>43425</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F35" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="16">
-        <v>43426</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="16">
-        <v>43427</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F37" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="16">
-        <v>43430</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="16">
-        <v>43431</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="16">
-        <v>43432</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="16">
-        <v>43433</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F41" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="16">
-        <v>43434</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="16">
-        <v>43437</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="16">
-        <v>43438</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F44" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="16">
-        <v>43439</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F45" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="16">
-        <v>43440</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="16">
-        <v>43441</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="16">
-        <v>43444</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F48" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="16">
-        <v>43445</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F49" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A50" s="16">
-        <v>43446</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="16">
-        <v>43447</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="16">
-        <v>43448</v>
-      </c>
-      <c r="B52" s="1">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="16">
-        <v>43451</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F53" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="16">
-        <v>43452</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F54" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="16">
-        <v>43453</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="16">
-        <v>43454</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="16">
-        <v>43455</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="16">
-        <v>43458</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F58" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="16">
-        <v>43459</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F59" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A60" s="16">
-        <v>43460</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A61" s="16">
-        <v>43461</v>
-      </c>
-      <c r="B61" s="1">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F61" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="16">
-        <v>43462</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.2083333283662796</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0.3452380895614624</v>
-      </c>
-      <c r="F62" s="1">
-        <v>0.2380952388048172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="16">
-        <v>43467</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F63" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="16">
-        <v>43468</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0</v>
-      </c>
-      <c r="C64" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F64" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="16">
-        <v>43469</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F65" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="16">
-        <v>43472</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0</v>
-      </c>
-      <c r="C66" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F66" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="16">
-        <v>43473</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F67" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A68" s="16">
-        <v>43474</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A69" s="16">
-        <v>43475</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A70" s="16">
-        <v>43476</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F70" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A71" s="16">
-        <v>43479</v>
-      </c>
-      <c r="B71" s="1">
-        <v>0</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F71" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="16">
-        <v>43480</v>
-      </c>
-      <c r="B72" s="1">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F72" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="16">
-        <v>43481</v>
-      </c>
-      <c r="B73" s="1">
-        <v>0</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F73" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="16">
-        <v>43482</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F74" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A75" s="16">
-        <v>43483</v>
-      </c>
-      <c r="B75" s="1">
-        <v>0</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A76" s="16">
-        <v>43486</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F76" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A77" s="16">
-        <v>43487</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F77" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A78" s="16">
-        <v>43488</v>
-      </c>
-      <c r="B78" s="1">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F78" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A79" s="16">
-        <v>43489</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F79" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A80" s="16">
-        <v>43490</v>
-      </c>
-      <c r="B80" s="1">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F80" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" s="16">
-        <v>43493</v>
-      </c>
-      <c r="B81" s="1">
-        <v>0</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E81" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F81" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" s="16">
-        <v>43494</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0</v>
-      </c>
-      <c r="C82" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F82" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" s="16">
-        <v>43495</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F83" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="16">
-        <v>43496</v>
-      </c>
-      <c r="B84" s="1">
-        <v>0</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.18817204236984261</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-      <c r="F84" s="1">
-        <v>0.31182795763015753</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="16">
-        <v>43497</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F85" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="16">
-        <v>43507</v>
-      </c>
-      <c r="B86" s="1">
-        <v>0</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F86" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="16">
-        <v>43508</v>
-      </c>
-      <c r="B87" s="1">
-        <v>0</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F87" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" s="16">
-        <v>43509</v>
-      </c>
-      <c r="B88" s="1">
-        <v>0</v>
-      </c>
-      <c r="C88" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E88" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F88" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" s="16">
-        <v>43510</v>
-      </c>
-      <c r="B89" s="1">
-        <v>0</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E89" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F89" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" s="16">
-        <v>43511</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0</v>
-      </c>
-      <c r="C90" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F90" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" s="16">
-        <v>43514</v>
-      </c>
-      <c r="B91" s="1">
-        <v>0</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F91" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="16">
-        <v>43515</v>
-      </c>
-      <c r="B92" s="1">
-        <v>0</v>
-      </c>
-      <c r="C92" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F92" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="16">
-        <v>43516</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F93" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="16">
-        <v>43517</v>
-      </c>
-      <c r="B94" s="1">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E94" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F94" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="16">
-        <v>43518</v>
-      </c>
-      <c r="B95" s="1">
-        <v>0</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E95" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F95" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" s="16">
-        <v>43521</v>
-      </c>
-      <c r="B96" s="1">
-        <v>0</v>
-      </c>
-      <c r="C96" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E96" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F96" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="16">
-        <v>43522</v>
-      </c>
-      <c r="B97" s="1">
-        <v>0</v>
-      </c>
-      <c r="C97" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F97" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="16">
-        <v>43523</v>
-      </c>
-      <c r="B98" s="1">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E98" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F98" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="16">
-        <v>43524</v>
-      </c>
-      <c r="B99" s="1">
-        <v>0</v>
-      </c>
-      <c r="C99" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0.23333333432674411</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-      <c r="F99" s="1">
-        <v>0.26666668057441711</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" s="16">
-        <v>43525</v>
-      </c>
-      <c r="B100" s="1">
-        <v>0</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F100" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="16">
-        <v>43528</v>
-      </c>
-      <c r="B101" s="1">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F101" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" s="16">
-        <v>43529</v>
-      </c>
-      <c r="B102" s="1">
-        <v>0</v>
-      </c>
-      <c r="C102" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E102" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F102" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" s="16">
-        <v>43530</v>
-      </c>
-      <c r="B103" s="1">
-        <v>0</v>
-      </c>
-      <c r="C103" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F103" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" s="16">
-        <v>43531</v>
-      </c>
-      <c r="B104" s="1">
-        <v>0</v>
-      </c>
-      <c r="C104" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D104" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E104" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F104" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="16">
-        <v>43532</v>
-      </c>
-      <c r="B105" s="1">
-        <v>0</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D105" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E105" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F105" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="16">
-        <v>43535</v>
-      </c>
-      <c r="B106" s="1">
-        <v>0</v>
-      </c>
-      <c r="C106" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D106" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E106" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F106" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="16">
-        <v>43536</v>
-      </c>
-      <c r="B107" s="1">
-        <v>0</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E107" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F107" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="16">
-        <v>43537</v>
-      </c>
-      <c r="B108" s="1">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D108" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E108" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F108" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" s="16">
-        <v>43538</v>
-      </c>
-      <c r="B109" s="1">
-        <v>0</v>
-      </c>
-      <c r="C109" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D109" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E109" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F109" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A110" s="16">
-        <v>43539</v>
-      </c>
-      <c r="B110" s="1">
-        <v>0</v>
-      </c>
-      <c r="C110" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D110" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E110" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F110" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A111" s="16">
-        <v>43542</v>
-      </c>
-      <c r="B111" s="1">
-        <v>0</v>
-      </c>
-      <c r="C111" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E111" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F111" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A112" s="16">
-        <v>43543</v>
-      </c>
-      <c r="B112" s="1">
-        <v>0</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D112" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E112" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F112" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A113" s="16">
-        <v>43544</v>
-      </c>
-      <c r="B113" s="1">
-        <v>0</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D113" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E113" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F113" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A114" s="16">
-        <v>43545</v>
-      </c>
-      <c r="B114" s="1">
-        <v>0</v>
-      </c>
-      <c r="C114" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E114" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F114" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A115" s="16">
-        <v>43546</v>
-      </c>
-      <c r="B115" s="1">
-        <v>0</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D115" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E115" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F115" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A116" s="16">
-        <v>43549</v>
-      </c>
-      <c r="B116" s="1">
-        <v>0</v>
-      </c>
-      <c r="C116" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D116" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E116" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F116" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A117" s="16">
-        <v>43550</v>
-      </c>
-      <c r="B117" s="1">
-        <v>0</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D117" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E117" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F117" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A118" s="16">
-        <v>43551</v>
-      </c>
-      <c r="B118" s="1">
-        <v>0</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D118" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E118" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F118" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A119" s="16">
-        <v>43552</v>
-      </c>
-      <c r="B119" s="1">
-        <v>0</v>
-      </c>
-      <c r="C119" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D119" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E119" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F119" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A120" s="16">
-        <v>43553</v>
-      </c>
-      <c r="B120" s="1">
-        <v>0</v>
-      </c>
-      <c r="C120" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="D120" s="1">
-        <v>0.21014492213726041</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-      <c r="F120" s="1">
-        <v>0.28985506296157842</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A121" s="16">
-        <v>43556</v>
-      </c>
-      <c r="B121" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C121" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D121" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E121" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F121" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A122" s="16">
-        <v>43557</v>
-      </c>
-      <c r="B122" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C122" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D122" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F122" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A123" s="16">
-        <v>43558</v>
-      </c>
-      <c r="B123" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C123" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D123" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E123" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F123" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A124" s="16">
-        <v>43559</v>
-      </c>
-      <c r="B124" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C124" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D124" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E124" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F124" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" s="16">
-        <v>43563</v>
-      </c>
-      <c r="B125" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C125" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D125" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E125" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F125" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" s="16">
-        <v>43564</v>
-      </c>
-      <c r="B126" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C126" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D126" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E126" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F126" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="16">
-        <v>43565</v>
-      </c>
-      <c r="B127" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C127" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D127" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E127" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F127" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128" s="16">
-        <v>43566</v>
-      </c>
-      <c r="B128" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C128" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D128" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E128" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F128" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" s="16">
-        <v>43567</v>
-      </c>
-      <c r="B129" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C129" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D129" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E129" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F129" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="16">
-        <v>43570</v>
-      </c>
-      <c r="B130" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C130" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D130" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E130" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F130" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="16">
-        <v>43571</v>
-      </c>
-      <c r="B131" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C131" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D131" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E131" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F131" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" s="16">
-        <v>43572</v>
-      </c>
-      <c r="B132" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D132" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E132" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F132" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A133" s="16">
-        <v>43573</v>
-      </c>
-      <c r="B133" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D133" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E133" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F133" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="16">
-        <v>43574</v>
-      </c>
-      <c r="B134" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C134" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D134" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E134" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F134" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="16">
-        <v>43577</v>
-      </c>
-      <c r="B135" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C135" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D135" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E135" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F135" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136" s="16">
-        <v>43578</v>
-      </c>
-      <c r="B136" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C136" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D136" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E136" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F136" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A137" s="16">
-        <v>43579</v>
-      </c>
-      <c r="B137" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C137" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D137" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E137" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F137" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A138" s="16">
-        <v>43580</v>
-      </c>
-      <c r="B138" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C138" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D138" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E138" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F138" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" s="16">
-        <v>43581</v>
-      </c>
-      <c r="B139" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C139" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D139" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E139" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F139" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="16">
-        <v>43584</v>
-      </c>
-      <c r="B140" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C140" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D140" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E140" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F140" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="16">
-        <v>43585</v>
-      </c>
-      <c r="B141" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C141" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D141" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E141" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F141" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142" s="16">
-        <v>43591</v>
-      </c>
-      <c r="B142" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C142" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D142" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E142" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F142" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" s="16">
-        <v>43592</v>
-      </c>
-      <c r="B143" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C143" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D143" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E143" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F143" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" s="16">
-        <v>43593</v>
-      </c>
-      <c r="B144" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C144" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D144" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E144" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F144" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" s="16">
-        <v>43594</v>
-      </c>
-      <c r="B145" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C145" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D145" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E145" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F145" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="16">
-        <v>43595</v>
-      </c>
-      <c r="B146" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D146" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E146" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F146" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="16">
-        <v>43598</v>
-      </c>
-      <c r="B147" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C147" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D147" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E147" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F147" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="16">
-        <v>43599</v>
-      </c>
-      <c r="B148" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C148" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D148" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E148" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F148" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="16">
-        <v>43600</v>
-      </c>
-      <c r="B149" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C149" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D149" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E149" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F149" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A150" s="16">
-        <v>43601</v>
-      </c>
-      <c r="B150" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C150" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D150" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E150" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F150" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A151" s="16">
-        <v>43602</v>
-      </c>
-      <c r="B151" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C151" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D151" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E151" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F151" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A152" s="16">
-        <v>43605</v>
-      </c>
-      <c r="B152" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C152" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D152" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E152" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F152" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A153" s="16">
-        <v>43606</v>
-      </c>
-      <c r="B153" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C153" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D153" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E153" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F153" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A154" s="16">
-        <v>43607</v>
-      </c>
-      <c r="B154" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C154" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D154" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E154" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F154" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A155" s="16">
-        <v>43608</v>
-      </c>
-      <c r="B155" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C155" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D155" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E155" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F155" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A156" s="16">
-        <v>43609</v>
-      </c>
-      <c r="B156" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C156" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D156" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E156" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F156" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A157" s="16">
-        <v>43612</v>
-      </c>
-      <c r="B157" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C157" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D157" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E157" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F157" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A158" s="16">
-        <v>43613</v>
-      </c>
-      <c r="B158" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C158" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D158" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E158" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F158" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A159" s="16">
-        <v>43614</v>
-      </c>
-      <c r="B159" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C159" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D159" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E159" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F159" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A160" s="16">
-        <v>43615</v>
-      </c>
-      <c r="B160" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C160" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D160" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E160" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F160" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A161" s="16">
-        <v>43616</v>
-      </c>
-      <c r="B161" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C161" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D161" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E161" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F161" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A162" s="16">
-        <v>43619</v>
-      </c>
-      <c r="B162" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C162" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D162" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E162" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F162" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A163" s="16">
-        <v>43620</v>
-      </c>
-      <c r="B163" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C163" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D163" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E163" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F163" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A164" s="16">
-        <v>43621</v>
-      </c>
-      <c r="B164" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C164" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D164" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E164" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F164" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A165" s="16">
-        <v>43622</v>
-      </c>
-      <c r="B165" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C165" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D165" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E165" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F165" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A166" s="16">
-        <v>43626</v>
-      </c>
-      <c r="B166" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C166" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D166" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E166" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F166" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A167" s="16">
-        <v>43627</v>
-      </c>
-      <c r="B167" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C167" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D167" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E167" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F167" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A168" s="16">
-        <v>43628</v>
-      </c>
-      <c r="B168" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C168" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D168" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E168" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F168" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A169" s="16">
-        <v>43629</v>
-      </c>
-      <c r="B169" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C169" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D169" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E169" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F169" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A170" s="16">
-        <v>43630</v>
-      </c>
-      <c r="B170" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C170" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D170" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E170" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F170" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A171" s="16">
-        <v>43633</v>
-      </c>
-      <c r="B171" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C171" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D171" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E171" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F171" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A172" s="16">
-        <v>43634</v>
-      </c>
-      <c r="B172" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C172" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D172" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E172" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F172" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A173" s="16">
-        <v>43635</v>
-      </c>
-      <c r="B173" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C173" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D173" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E173" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F173" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A174" s="16">
-        <v>43636</v>
-      </c>
-      <c r="B174" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C174" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D174" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E174" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F174" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A175" s="16">
-        <v>43637</v>
-      </c>
-      <c r="B175" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C175" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D175" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E175" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F175" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A176" s="16">
-        <v>43640</v>
-      </c>
-      <c r="B176" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C176" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D176" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E176" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F176" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A177" s="16">
-        <v>43641</v>
-      </c>
-      <c r="B177" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C177" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D177" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E177" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F177" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A178" s="16">
-        <v>43642</v>
-      </c>
-      <c r="B178" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C178" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D178" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E178" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F178" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A179" s="16">
-        <v>43643</v>
-      </c>
-      <c r="B179" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C179" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D179" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E179" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F179" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A180" s="16">
-        <v>43644</v>
-      </c>
-      <c r="B180" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C180" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="D180" s="1">
-        <v>0.19285714626312259</v>
-      </c>
-      <c r="E180" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-      <c r="F180" s="1">
-        <v>0.25714287161827087</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A181" s="16">
-        <v>43647</v>
-      </c>
-      <c r="B181" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C181" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D181" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E181" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F181" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A182" s="16">
-        <v>43648</v>
-      </c>
-      <c r="B182" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C182" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D182" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E182" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F182" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A183" s="16">
-        <v>43649</v>
-      </c>
-      <c r="B183" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C183" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D183" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E183" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F183" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A184" s="16">
-        <v>43650</v>
-      </c>
-      <c r="B184" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C184" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D184" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E184" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F184" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A185" s="16">
-        <v>43651</v>
-      </c>
-      <c r="B185" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C185" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D185" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E185" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F185" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A186" s="16">
-        <v>43654</v>
-      </c>
-      <c r="B186" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C186" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D186" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E186" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F186" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A187" s="16">
-        <v>43655</v>
-      </c>
-      <c r="B187" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C187" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D187" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E187" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F187" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A188" s="16">
-        <v>43656</v>
-      </c>
-      <c r="B188" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C188" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D188" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E188" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F188" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A189" s="16">
-        <v>43657</v>
-      </c>
-      <c r="B189" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C189" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D189" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E189" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F189" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A190" s="16">
-        <v>43658</v>
-      </c>
-      <c r="B190" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C190" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D190" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E190" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F190" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A191" s="16">
-        <v>43661</v>
-      </c>
-      <c r="B191" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C191" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D191" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E191" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F191" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A192" s="16">
-        <v>43662</v>
-      </c>
-      <c r="B192" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C192" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D192" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E192" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F192" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A193" s="16">
-        <v>43663</v>
-      </c>
-      <c r="B193" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C193" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D193" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E193" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F193" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A194" s="16">
-        <v>43664</v>
-      </c>
-      <c r="B194" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C194" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D194" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E194" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F194" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A195" s="16">
-        <v>43665</v>
-      </c>
-      <c r="B195" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C195" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D195" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E195" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F195" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A196" s="16">
-        <v>43668</v>
-      </c>
-      <c r="B196" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C196" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D196" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E196" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F196" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A197" s="16">
-        <v>43669</v>
-      </c>
-      <c r="B197" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C197" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D197" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E197" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F197" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A198" s="16">
-        <v>43670</v>
-      </c>
-      <c r="B198" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C198" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D198" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E198" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F198" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A199" s="16">
-        <v>43671</v>
-      </c>
-      <c r="B199" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C199" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D199" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E199" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F199" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A200" s="16">
-        <v>43672</v>
-      </c>
-      <c r="B200" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C200" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D200" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E200" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F200" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A201" s="16">
-        <v>43675</v>
-      </c>
-      <c r="B201" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C201" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D201" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E201" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F201" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A202" s="16">
-        <v>43676</v>
-      </c>
-      <c r="B202" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C202" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D202" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E202" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F202" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A203" s="16">
-        <v>43677</v>
-      </c>
-      <c r="B203" s="1">
-        <v>0.10000000149011611</v>
-      </c>
-      <c r="C203" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="D203" s="1">
-        <v>0.15000000596046451</v>
-      </c>
-      <c r="E203" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="F203" s="1">
-        <v>0.30000001192092901</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A204" s="16">
-        <v>43678</v>
-      </c>
-      <c r="B204" s="1">
+      <c r="A4" s="5">
+        <v>43777</v>
+      </c>
+      <c r="B4" s="10">
         <v>0.20000000298023221</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C4" s="10">
         <v>0.17543859779834739</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D4" s="10">
         <v>0.17543859779834739</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E4" s="10">
         <v>0.224561408162117</v>
       </c>
-      <c r="F204" s="1">
+      <c r="F4" s="10">
         <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A205" s="16">
-        <v>43679</v>
-      </c>
-      <c r="B205" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C205" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D205" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E205" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F205" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A206" s="16">
-        <v>43682</v>
-      </c>
-      <c r="B206" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C206" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D206" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E206" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F206" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A207" s="16">
-        <v>43683</v>
-      </c>
-      <c r="B207" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C207" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D207" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E207" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F207" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A208" s="16">
-        <v>43684</v>
-      </c>
-      <c r="B208" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C208" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D208" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E208" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F208" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A209" s="16">
-        <v>43685</v>
-      </c>
-      <c r="B209" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C209" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D209" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E209" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F209" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A210" s="16">
-        <v>43686</v>
-      </c>
-      <c r="B210" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C210" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D210" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E210" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F210" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A211" s="16">
-        <v>43689</v>
-      </c>
-      <c r="B211" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C211" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D211" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E211" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F211" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A212" s="16">
-        <v>43690</v>
-      </c>
-      <c r="B212" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C212" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D212" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E212" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F212" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A213" s="16">
-        <v>43691</v>
-      </c>
-      <c r="B213" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C213" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D213" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E213" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F213" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A214" s="16">
-        <v>43692</v>
-      </c>
-      <c r="B214" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C214" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D214" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E214" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F214" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A215" s="16">
-        <v>43693</v>
-      </c>
-      <c r="B215" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C215" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D215" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E215" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F215" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A216" s="16">
-        <v>43696</v>
-      </c>
-      <c r="B216" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C216" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D216" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E216" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F216" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A217" s="16">
-        <v>43697</v>
-      </c>
-      <c r="B217" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C217" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D217" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E217" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F217" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A218" s="16">
-        <v>43698</v>
-      </c>
-      <c r="B218" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C218" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D218" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E218" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F218" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A219" s="16">
-        <v>43699</v>
-      </c>
-      <c r="B219" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C219" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D219" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E219" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F219" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A220" s="16">
-        <v>43700</v>
-      </c>
-      <c r="B220" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C220" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D220" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E220" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F220" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A221" s="16">
-        <v>43703</v>
-      </c>
-      <c r="B221" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C221" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D221" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E221" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F221" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A222" s="16">
-        <v>43704</v>
-      </c>
-      <c r="B222" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C222" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D222" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E222" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F222" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A223" s="16">
-        <v>43705</v>
-      </c>
-      <c r="B223" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C223" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D223" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E223" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F223" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A224" s="16">
-        <v>43706</v>
-      </c>
-      <c r="B224" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C224" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D224" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E224" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F224" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A225" s="16">
-        <v>43707</v>
-      </c>
-      <c r="B225" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C225" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="D225" s="1">
-        <v>0.17543859779834739</v>
-      </c>
-      <c r="E225" s="1">
-        <v>0.224561408162117</v>
-      </c>
-      <c r="F225" s="1">
-        <v>0.224561408162117</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A226" s="16">
-        <v>43710</v>
-      </c>
-      <c r="B226" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C226" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D226" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E226" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F226" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A227" s="16">
-        <v>43711</v>
-      </c>
-      <c r="B227" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C227" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D227" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E227" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F227" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A228" s="16">
-        <v>43712</v>
-      </c>
-      <c r="B228" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C228" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D228" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E228" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F228" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A229" s="16">
-        <v>43713</v>
-      </c>
-      <c r="B229" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C229" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D229" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E229" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F229" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A230" s="16">
-        <v>43714</v>
-      </c>
-      <c r="B230" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C230" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D230" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E230" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F230" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A231" s="16">
-        <v>43717</v>
-      </c>
-      <c r="B231" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C231" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D231" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E231" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F231" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A232" s="16">
-        <v>43718</v>
-      </c>
-      <c r="B232" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C232" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D232" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E232" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F232" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A233" s="16">
-        <v>43719</v>
-      </c>
-      <c r="B233" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C233" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D233" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E233" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F233" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A234" s="16">
-        <v>43720</v>
-      </c>
-      <c r="B234" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C234" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D234" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E234" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F234" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A235" s="16">
-        <v>43724</v>
-      </c>
-      <c r="B235" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C235" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D235" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E235" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F235" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A236" s="16">
-        <v>43725</v>
-      </c>
-      <c r="B236" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C236" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D236" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E236" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F236" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A237" s="16">
-        <v>43726</v>
-      </c>
-      <c r="B237" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C237" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D237" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E237" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F237" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A238" s="16">
-        <v>43727</v>
-      </c>
-      <c r="B238" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C238" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D238" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E238" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F238" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A239" s="16">
-        <v>43728</v>
-      </c>
-      <c r="B239" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C239" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D239" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E239" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F239" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A240" s="16">
-        <v>43731</v>
-      </c>
-      <c r="B240" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C240" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D240" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E240" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F240" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A241" s="16">
-        <v>43732</v>
-      </c>
-      <c r="B241" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C241" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D241" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E241" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F241" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A242" s="16">
-        <v>43733</v>
-      </c>
-      <c r="B242" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C242" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D242" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E242" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F242" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A243" s="16">
-        <v>43734</v>
-      </c>
-      <c r="B243" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C243" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D243" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E243" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F243" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A244" s="16">
-        <v>43735</v>
-      </c>
-      <c r="B244" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C244" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D244" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E244" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F244" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A245" s="16">
-        <v>43738</v>
-      </c>
-      <c r="B245" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C245" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D245" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E245" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F245" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A246" s="16">
-        <v>43746</v>
-      </c>
-      <c r="B246" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C246" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D246" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E246" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F246" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A247" s="16">
-        <v>43747</v>
-      </c>
-      <c r="B247" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C247" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D247" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E247" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F247" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A248" s="16">
-        <v>43748</v>
-      </c>
-      <c r="B248" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C248" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D248" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E248" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F248" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A249" s="16">
-        <v>43749</v>
-      </c>
-      <c r="B249" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C249" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D249" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E249" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F249" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A250" s="16">
-        <v>43752</v>
-      </c>
-      <c r="B250" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C250" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D250" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E250" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F250" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A251" s="16">
-        <v>43753</v>
-      </c>
-      <c r="B251" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C251" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D251" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E251" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F251" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A252" s="16">
-        <v>43754</v>
-      </c>
-      <c r="B252" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C252" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D252" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E252" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F252" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A253" s="16">
-        <v>43755</v>
-      </c>
-      <c r="B253" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C253" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D253" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E253" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F253" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A254" s="16">
-        <v>43756</v>
-      </c>
-      <c r="B254" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C254" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D254" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E254" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F254" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A255" s="16">
-        <v>43759</v>
-      </c>
-      <c r="B255" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C255" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D255" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E255" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F255" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A256" s="16">
-        <v>43760</v>
-      </c>
-      <c r="B256" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C256" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D256" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E256" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F256" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A257" s="16">
-        <v>43761</v>
-      </c>
-      <c r="B257" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C257" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D257" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E257" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F257" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A258" s="16">
-        <v>43762</v>
-      </c>
-      <c r="B258" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C258" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D258" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E258" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F258" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A259" s="16">
-        <v>43763</v>
-      </c>
-      <c r="B259" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C259" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D259" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E259" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F259" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A260" s="16">
-        <v>43766</v>
-      </c>
-      <c r="B260" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C260" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D260" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E260" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F260" s="1">
-        <v>0.1939393877983093</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A261" s="16">
-        <v>43767</v>
-      </c>
-      <c r="B261" s="1">
-        <v>0.20000000298023221</v>
-      </c>
-      <c r="C261" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="D261" s="1">
-        <v>0.15151515603065491</v>
-      </c>
-      <c r="E261" s="1">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="F261" s="1">
-        <v>0.1939393877983093</v>
       </c>
     </row>
   </sheetData>
@@ -61476,1611 +56941,1632 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="1"/>
+    <col min="1" max="1" width="12.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>40939</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="4">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="4">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>40968</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="4">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="4">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>40998</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="4">
         <v>0.38999998569488531</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="4">
         <v>0.33000001311302191</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="4">
         <v>0.1800000071525574</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>41029</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="4">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="4">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>41060</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="4">
         <v>0.33428570628166199</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="4">
         <v>0.33428570628166199</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="4">
         <v>0.23142857849597931</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>41089</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="4">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="4">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>41121</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="4">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="4">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>41152</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="4">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="4">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>41180</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>41213</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>41243</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>41274</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="4">
         <v>0.37741935253143311</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="4">
         <v>0.26129031181335449</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="4">
         <v>0.26129031181335449</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="12">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>41305</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="4">
         <v>0.38076922297477722</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="4">
         <v>0.3115384578704834</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="4">
         <v>0.20769231021404269</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>41333</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="4">
         <v>0.38076922297477722</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="4">
         <v>0.3115384578704834</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="4">
         <v>0.20769231021404269</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>41362</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>41394</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="12">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>41425</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="4">
         <v>0.38076922297477722</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="4">
         <v>0.3115384578704834</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="4">
         <v>0.20769231021404269</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="12">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>41453</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="4">
         <v>0.38999998569488531</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="4">
         <v>0.33000001311302191</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="4">
         <v>0.1800000071525574</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="12">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <v>41486</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="12">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <v>41516</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
         <v>41547</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="12">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
         <v>41578</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="12">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
         <v>41607</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="12">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
         <v>41639</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="12">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <v>41670</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="12">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="13">
         <v>41698</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="12">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
         <v>41729</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="12">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="13">
         <v>41759</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="12">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="13">
         <v>41789</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="4">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="4">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="4">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="12">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="13">
         <v>41820</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="4">
         <v>0.46799999475479132</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="4">
         <v>0.32400000095367432</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="4">
         <v>0.1080000028014183</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="12">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="13">
         <v>41851</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="4">
         <v>0.43043479323387152</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="4">
         <v>0.23478260636329651</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="4">
         <v>0.23478260636329651</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="12">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
         <v>41880</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="4">
         <v>0.49500000476837158</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="4">
         <v>0.27000001072883612</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="4">
         <v>0.135000005364418</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="12">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
         <v>41912</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="4">
         <v>0.33750000596046448</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="4">
         <v>0.33750000596046448</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="4">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="12">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
         <v>41943</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="4">
         <v>0.44999998807907099</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="4">
         <v>0.15000000596046451</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="12">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
         <v>41971</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="4">
         <v>0.36000001430511469</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="4">
         <v>0.36000001430511469</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="4">
         <v>0.1800000071525574</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="12">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
         <v>42004</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="4">
         <v>0.1800000071525574</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="4">
         <v>0.54000002145767212</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="4">
         <v>0.1800000071525574</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="12">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
         <v>42034</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="4">
         <v>0.22499999403953549</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="4">
         <v>0.44999998807907099</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="4">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="12">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
         <v>42062</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="4">
         <v>9.0000003576278687E-2</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="4">
         <v>0.54000002145767212</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="4">
         <v>0.27000001072883612</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="12">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
         <v>42094</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="4">
         <v>0</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="4">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="12">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
         <v>42124</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="4">
         <v>0</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="4">
         <v>0.44999998807907099</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="4">
         <v>0.44999998807907099</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="12">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
         <v>42153</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="4">
         <v>0</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="4">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="12">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
         <v>42185</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="4">
         <v>0</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="4">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="12">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
         <v>42216</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="4">
         <v>0</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="4">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="12">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="13">
         <v>42247</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="4">
         <v>6.923077255487442E-2</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="4">
         <v>0.41538462042808533</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="4">
         <v>0.41538462042808533</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="12">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="13">
         <v>42277</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="4">
         <v>0.15000000596046451</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="4">
         <v>0.44999998807907099</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="12">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
         <v>42307</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="4">
         <v>0</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="4">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="12">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
         <v>42338</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="4">
         <v>0</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="4">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="12">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="13">
         <v>42369</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="4">
         <v>0</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="4">
         <v>0.64516127109527588</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="4">
         <v>0.35483869910240168</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="12">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="13">
         <v>42398</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="4">
         <v>0.21568627655506131</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="4">
         <v>0.39215686917304993</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="4">
         <v>0.39215686917304993</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A51" s="12">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="13">
         <v>42429</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="4">
         <v>0.18333333730697629</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="4">
         <v>0.48333331942558289</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A52" s="12">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="13">
         <v>42460</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="4">
         <v>9.0000003576278687E-2</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="4">
         <v>0.54000002145767212</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="4">
         <v>0.27000001072883612</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" s="12">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="13">
         <v>42489</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="4">
         <v>9.0000003576278687E-2</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="4">
         <v>0.54000002145767212</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="4">
         <v>0.27000001072883612</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" s="12">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="13">
         <v>42521</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="4">
         <v>9.0000003576278687E-2</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="4">
         <v>0.54000002145767212</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="4">
         <v>0.27000001072883612</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" s="12">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
         <v>42551</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="4">
         <v>0</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="4">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" s="12">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
         <v>42580</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="4">
         <v>0</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="4">
         <v>0.67500001192092896</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="4">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" s="12">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="13">
         <v>42613</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="4">
         <v>0</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="4">
         <v>0.67500001192092896</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="4">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="12">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="13">
         <v>42643</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="4">
         <v>0</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C58" s="4">
         <v>0.44999998807907099</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="4">
         <v>0.44999998807907099</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="12">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="13">
         <v>42674</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="4">
         <v>0</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="4">
         <v>0.22499999403953549</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="4">
         <v>0.67500001192092896</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="12">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
         <v>42704</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="4">
         <v>0</v>
       </c>
-      <c r="C60" s="15">
+      <c r="C60" s="4">
         <v>0.67500001192092896</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="4">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="12">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="13">
         <v>42734</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="4">
         <v>0</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="4">
         <v>0.5</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="4">
         <v>0.5</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="12">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="13">
         <v>42766</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="4">
         <v>0</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C62" s="4">
         <v>0.5</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="4">
         <v>0.5</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="12">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="13">
         <v>42794</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="4">
         <v>0</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="4">
         <v>0.5</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="4">
         <v>0.5</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="12">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="13">
         <v>42825</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="4">
         <v>0.2380952388048172</v>
       </c>
-      <c r="C64" s="15">
+      <c r="C64" s="4">
         <v>0.2380952388048172</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="4">
         <v>0.52380955219268799</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="12">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="13">
         <v>42853</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="4">
         <v>0.40740740299224848</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="4">
         <v>0.18518517911434171</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="4">
         <v>0.40740740299224848</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="12">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="13">
         <v>42886</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="4">
         <v>0.40740740299224848</v>
       </c>
-      <c r="C66" s="15">
+      <c r="C66" s="4">
         <v>0.18518517911434171</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="4">
         <v>0.40740740299224848</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="12">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="13">
         <v>42916</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" s="12">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="13">
         <v>42947</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="4">
         <v>0.40740740299224848</v>
       </c>
-      <c r="C68" s="15">
+      <c r="C68" s="4">
         <v>0.18518517911434171</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="4">
         <v>0.40740740299224848</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="12">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="13">
         <v>42978</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="4">
         <v>0.40740740299224848</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="4">
         <v>0.18518517911434171</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="4">
         <v>0.40740740299224848</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" s="12">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="13">
         <v>43007</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="C70" s="15">
+      <c r="C70" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" s="12">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
         <v>43039</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" s="12">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
         <v>43069</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="4">
         <v>0.44999998807907099</v>
       </c>
-      <c r="C72" s="15">
+      <c r="C72" s="4">
         <v>0.22499999403953549</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="4">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" s="12">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="13">
         <v>43098</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="4">
         <v>0.39215686917304993</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="4">
         <v>0.39215686917304993</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="4">
         <v>0.21568627655506131</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="12">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="13">
         <v>43131</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="4">
         <v>0.40740740299224848</v>
       </c>
-      <c r="C74" s="15">
+      <c r="C74" s="4">
         <v>0.40740740299224848</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="4">
         <v>0.18518517911434171</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="12">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="13">
         <v>43159</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="4">
         <v>0.4761904776096344</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="4">
         <v>0.26190477609634399</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="4">
         <v>0.26190477609634399</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" s="12">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="13">
         <v>43189</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="12">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="13">
         <v>43220</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B77" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="12">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="13">
         <v>43251</v>
       </c>
-      <c r="B78" s="15">
+      <c r="B78" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C78" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="4">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="12">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="13">
         <v>43280</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="4">
         <v>0.42028984427452087</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="4">
         <v>0.28985506296157842</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="4">
         <v>0.28985506296157842</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="12">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="13">
         <v>43312</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="4">
         <v>0.42028984427452087</v>
       </c>
-      <c r="C80" s="15">
+      <c r="C80" s="4">
         <v>0.28985506296157842</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="4">
         <v>0.28985506296157842</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" s="12">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="13">
         <v>43343</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="4">
         <v>0.46666666865348821</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="4">
         <v>0.26666668057441711</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="4">
         <v>0.26666668057441711</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="12">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="13">
         <v>43371</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="4">
         <v>0.42028984427452087</v>
       </c>
-      <c r="C82" s="15">
+      <c r="C82" s="4">
         <v>0.28985506296157842</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="4">
         <v>0.28985506296157842</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="12">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="13">
         <v>43404</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="4">
         <v>0.4166666567325592</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="4">
         <v>0.3452380895614624</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="4">
         <v>0.2380952388048172</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="12">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="13">
         <v>43434</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="4">
         <v>0.4166666567325592</v>
       </c>
-      <c r="C84" s="15">
+      <c r="C84" s="4">
         <v>0.3452380895614624</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="4">
         <v>0.2380952388048172</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="12">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="13">
         <v>43465</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="4">
         <v>0.37634408473968511</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="4">
         <v>0.31182795763015753</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="4">
         <v>0.31182795763015753</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" s="12">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="13">
         <v>43496</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="4">
         <v>0.46666666865348821</v>
       </c>
-      <c r="C86" s="15">
+      <c r="C86" s="4">
         <v>0.26666668057441711</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="4">
         <v>0.26666668057441711</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" s="12">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="13">
         <v>43524</v>
       </c>
-      <c r="B87" s="15">
+      <c r="B87" s="4">
         <v>0.42028984427452087</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="4">
         <v>0.28985506296157842</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="4">
         <v>0.28985506296157842</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" s="12">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="13">
         <v>43553</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E88" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" s="12">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="13">
         <v>43585</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E89" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="12">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="13">
         <v>43616</v>
       </c>
-      <c r="B90" s="15">
+      <c r="B90" s="4">
         <v>0.38571429252624512</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="4">
         <v>0.25714287161827087</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="4">
         <v>0.25714287161827087</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E90" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="12">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="13">
         <v>43644</v>
       </c>
-      <c r="B91" s="15">
+      <c r="B91" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="4">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E91" s="4">
         <v>0.10000000149011611</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" s="12">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="13">
         <v>43677</v>
       </c>
-      <c r="B92" s="15">
+      <c r="B92" s="4">
         <v>0.35087719559669489</v>
       </c>
-      <c r="C92" s="15">
+      <c r="C92" s="4">
         <v>0.224561408162117</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="4">
         <v>0.224561408162117</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="4">
         <v>0.20000000298023221</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="12">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="13">
         <v>43707</v>
       </c>
-      <c r="B93" s="15">
+      <c r="B93" s="4">
         <v>0.30303031206130981</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="4">
         <v>0.30303031206130981</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="4">
         <v>0.1939393877983093</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E93" s="4">
         <v>0.20000000298023221</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="12">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="13">
         <v>43738</v>
       </c>
-      <c r="B94" s="15">
+      <c r="B94" s="4">
         <v>0.30303031206130981</v>
       </c>
-      <c r="C94" s="15">
+      <c r="C94" s="4">
         <v>0.30303031206130981</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="4">
         <v>0.1939393877983093</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E94" s="4">
+        <v>0.20000000298023221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="13">
+        <v>43769</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.1939393877983093</v>
+      </c>
+      <c r="E95" s="4">
         <v>0.20000000298023221</v>
       </c>
     </row>

--- a/strategy/全球购策略/data/产品历史占比.xlsx
+++ b/strategy/全球购策略/data/产品历史占比.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25965" windowHeight="11145" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25965" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6993"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -613,7 +613,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <f ca="1">[1]!TDays("2019-7-1",TODAY()-1,"cols=1;rows=89")</f>
+        <f ca="1">[1]!TDays("2019-7-1",TODAY()-1,"cols=1;rows=97")</f>
         <v>43647</v>
       </c>
       <c r="B3" s="3">
@@ -2774,52 +2774,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>43787</v>
+      </c>
+      <c r="B97" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
+        <v>43788</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E99" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
@@ -23473,10 +23533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L274"/>
+  <dimension ref="A1:L277"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270:L274"/>
+    <sheetView topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="B270" sqref="B270:L277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -33894,6 +33954,120 @@
         <v>0</v>
       </c>
     </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A275" s="4">
+        <v>43787</v>
+      </c>
+      <c r="B275" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="C275" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="D275" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="E275" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="F275" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="G275" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="H275" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="I275" s="7">
+        <v>0.30303031206130998</v>
+      </c>
+      <c r="J275" s="7">
+        <v>0.19393938779830899</v>
+      </c>
+      <c r="K275" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="L275" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A276" s="4">
+        <v>43788</v>
+      </c>
+      <c r="B276" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="C276" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="D276" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="E276" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="F276" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="G276" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="H276" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="I276" s="7">
+        <v>0.30303031206130998</v>
+      </c>
+      <c r="J276" s="7">
+        <v>0.19393938779830899</v>
+      </c>
+      <c r="K276" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="L276" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A277" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B277" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="C277" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="D277" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="E277" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="F277" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="G277" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="H277" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="I277" s="7">
+        <v>0.30303031206130998</v>
+      </c>
+      <c r="J277" s="7">
+        <v>0.19393938779830899</v>
+      </c>
+      <c r="K277" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="L277" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33902,10 +34076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1434"/>
+  <dimension ref="A1:E1437"/>
   <sheetViews>
-    <sheetView topLeftCell="A1401" workbookViewId="0">
-      <selection activeCell="B1430" sqref="B1430:E1434"/>
+    <sheetView topLeftCell="A1416" workbookViewId="0">
+      <selection activeCell="B1430" sqref="B1430:E1437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -58288,6 +58462,57 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="1435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1435" s="4">
+        <v>43787</v>
+      </c>
+      <c r="B1435" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C1435" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D1435" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E1435" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1436" s="4">
+        <v>43788</v>
+      </c>
+      <c r="B1436" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C1436" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D1436" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E1436" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1437" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B1437" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C1437" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D1437" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E1437" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58296,10 +58521,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F762"/>
+  <dimension ref="A1:F765"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F757" sqref="F757"/>
+    <sheetView topLeftCell="A737" workbookViewId="0">
+      <selection activeCell="B762" sqref="B762:F765"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -73545,6 +73770,66 @@
         <v>0.224561408162117</v>
       </c>
       <c r="F762" s="7">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A763" s="4">
+        <v>43788</v>
+      </c>
+      <c r="B763" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C763" s="7">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="D763" s="7">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="E763" s="7">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F763" s="7">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A764" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B764" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C764" s="7">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="D764" s="7">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="E764" s="7">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F764" s="7">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A765" s="4">
+        <v>43790</v>
+      </c>
+      <c r="B765" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C765" s="7">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="D765" s="7">
+        <v>0.17543859779834739</v>
+      </c>
+      <c r="E765" s="7">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F765" s="7">
         <v>0.224561408162117</v>
       </c>
     </row>

--- a/strategy/全球购策略/data/产品历史占比.xlsx
+++ b/strategy/全球购策略/data/产品历史占比.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\zjsxzy_in_js\strategy\全球购策略\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hfm-pubshare\HFM各部门共享\Harvest嘉实全体员工\策略孵化组\多重风管分组审核\zhangyang\江苏银行全球购策略\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -191,27 +191,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -223,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,16 +227,17 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -556,7 +542,7 @@
   <dimension ref="A1:G6993"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B96" sqref="B96:G99"/>
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2843,26 +2829,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A101" s="4"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A102" s="4"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A103" s="4"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A106" s="4"/>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>43790</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>43791</v>
+      </c>
+      <c r="B101" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C101" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>43794</v>
+      </c>
+      <c r="B102" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C102" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>43795</v>
+      </c>
+      <c r="B103" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E103" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>43796</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C104" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E104" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>43798</v>
+      </c>
+      <c r="B106" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G106" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
@@ -23533,10 +23659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L277"/>
+  <dimension ref="A1:L284"/>
   <sheetViews>
     <sheetView topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="B270" sqref="B270:L277"/>
+      <selection activeCell="B270" sqref="B270:L284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -34068,6 +34194,272 @@
         <v>0</v>
       </c>
     </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A278" s="4">
+        <v>43790</v>
+      </c>
+      <c r="B278" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="C278" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="D278" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="E278" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="F278" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="G278" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="H278" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="I278" s="7">
+        <v>0.30303031206130998</v>
+      </c>
+      <c r="J278" s="7">
+        <v>0.19393938779830899</v>
+      </c>
+      <c r="K278" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="L278" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A279" s="4">
+        <v>43791</v>
+      </c>
+      <c r="B279" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="C279" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="D279" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="E279" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="F279" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="G279" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="H279" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="I279" s="7">
+        <v>0.30303031206130998</v>
+      </c>
+      <c r="J279" s="7">
+        <v>0.19393938779830899</v>
+      </c>
+      <c r="K279" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="L279" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A280" s="4">
+        <v>43794</v>
+      </c>
+      <c r="B280" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="C280" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="D280" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="E280" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="F280" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="G280" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="H280" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="I280" s="7">
+        <v>0.30303031206130998</v>
+      </c>
+      <c r="J280" s="7">
+        <v>0.19393938779830899</v>
+      </c>
+      <c r="K280" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="L280" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A281" s="4">
+        <v>43795</v>
+      </c>
+      <c r="B281" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="C281" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="D281" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="E281" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="F281" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="G281" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="H281" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="I281" s="7">
+        <v>0.30303031206130998</v>
+      </c>
+      <c r="J281" s="7">
+        <v>0.19393938779830899</v>
+      </c>
+      <c r="K281" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="L281" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A282" s="4">
+        <v>43796</v>
+      </c>
+      <c r="B282" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="C282" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="D282" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="E282" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="F282" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="G282" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="H282" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="I282" s="7">
+        <v>0.30303031206130998</v>
+      </c>
+      <c r="J282" s="7">
+        <v>0.19393938779830899</v>
+      </c>
+      <c r="K282" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="L282" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A283" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B283" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="C283" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="D283" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="E283" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="F283" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="G283" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="H283" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="I283" s="7">
+        <v>0.30303031206130998</v>
+      </c>
+      <c r="J283" s="7">
+        <v>0.19393938779830899</v>
+      </c>
+      <c r="K283" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="L283" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A284" s="4">
+        <v>43798</v>
+      </c>
+      <c r="B284" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="C284" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="D284" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="E284" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="F284" s="7">
+        <v>7.5757578015327495E-2</v>
+      </c>
+      <c r="G284" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="H284" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="I284" s="7">
+        <v>0.30303031206130998</v>
+      </c>
+      <c r="J284" s="7">
+        <v>0.19393938779830899</v>
+      </c>
+      <c r="K284" s="7">
+        <v>5.0000000745058101E-2</v>
+      </c>
+      <c r="L284" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34076,10 +34468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1437"/>
+  <dimension ref="A1:E1444"/>
   <sheetViews>
     <sheetView topLeftCell="A1416" workbookViewId="0">
-      <selection activeCell="B1430" sqref="B1430:E1437"/>
+      <selection activeCell="B1430" sqref="B1430:E1444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -58513,6 +58905,125 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="1438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1438" s="4">
+        <v>43790</v>
+      </c>
+      <c r="B1438" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C1438" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D1438" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E1438" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1439" s="4">
+        <v>43791</v>
+      </c>
+      <c r="B1439" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C1439" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D1439" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E1439" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1440" s="4">
+        <v>43794</v>
+      </c>
+      <c r="B1440" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C1440" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D1440" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E1440" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1441" s="4">
+        <v>43795</v>
+      </c>
+      <c r="B1441" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C1441" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D1441" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E1441" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1442" s="4">
+        <v>43796</v>
+      </c>
+      <c r="B1442" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C1442" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D1442" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E1442" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1443" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B1443" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C1443" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D1443" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E1443" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1444" s="4">
+        <v>43798</v>
+      </c>
+      <c r="B1444" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C1444" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D1444" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E1444" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58521,15 +59032,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F765"/>
+  <dimension ref="A1:F771"/>
   <sheetViews>
-    <sheetView topLeftCell="A737" workbookViewId="0">
-      <selection activeCell="B762" sqref="B762:F765"/>
+    <sheetView topLeftCell="A740" workbookViewId="0">
+      <selection activeCell="C766" sqref="C766"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.375" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.125" style="7" bestFit="1" customWidth="1"/>
@@ -58574,7 +59085,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <f ca="1">[1]!TDays("2016-10-01",TODAY(),"cols=1;rows=760")</f>
+        <f ca="1">[1]!TDays("2016-10-01",TODAY()-1,"cols=1;rows=769")</f>
         <v>42653</v>
       </c>
       <c r="B3" s="7">
@@ -73830,6 +74341,126 @@
         <v>0.224561408162117</v>
       </c>
       <c r="F765" s="7">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A766" s="4">
+        <v>43791</v>
+      </c>
+      <c r="B766" s="7">
+        <v>0.20000000298023199</v>
+      </c>
+      <c r="C766" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="D766" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="E766" s="7">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F766" s="7">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A767" s="4">
+        <v>43794</v>
+      </c>
+      <c r="B767" s="7">
+        <v>0.20000000298023199</v>
+      </c>
+      <c r="C767" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="D767" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="E767" s="7">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F767" s="7">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A768" s="4">
+        <v>43795</v>
+      </c>
+      <c r="B768" s="7">
+        <v>0.20000000298023199</v>
+      </c>
+      <c r="C768" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="D768" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="E768" s="7">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F768" s="7">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A769" s="4">
+        <v>43796</v>
+      </c>
+      <c r="B769" s="7">
+        <v>0.20000000298023199</v>
+      </c>
+      <c r="C769" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="D769" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="E769" s="7">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F769" s="7">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A770" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B770" s="7">
+        <v>0.20000000298023199</v>
+      </c>
+      <c r="C770" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="D770" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="E770" s="7">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F770" s="7">
+        <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A771" s="4">
+        <v>43798</v>
+      </c>
+      <c r="B771" s="7">
+        <v>0.20000000298023199</v>
+      </c>
+      <c r="C771" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="D771" s="7">
+        <v>0.175438597798347</v>
+      </c>
+      <c r="E771" s="7">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="F771" s="7">
         <v>0.224561408162117</v>
       </c>
     </row>
@@ -73841,15 +74472,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="7" bestFit="1" customWidth="1"/>
@@ -73858,1615 +74489,1632 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>40939</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="12">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="12">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="11">
         <v>40968</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="12">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="12">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="11">
         <v>40998</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="12">
         <v>0.38999998569488531</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="12">
         <v>0.33000001311302191</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="12">
         <v>0.1800000071525574</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="11">
         <v>41029</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="12">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="12">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="11">
         <v>41060</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="12">
         <v>0.33428570628166199</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="12">
         <v>0.33428570628166199</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="12">
         <v>0.23142857849597931</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="11">
         <v>41089</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="12">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="12">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>41121</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="12">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="12">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="11">
         <v>41152</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="12">
         <v>0.35454544425010681</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="12">
         <v>0.24545454978942871</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="11">
         <v>41180</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="11">
         <v>41213</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="11">
         <v>41243</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <v>41274</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="12">
         <v>0.37741935253143311</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="12">
         <v>0.26129031181335449</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="12">
         <v>0.26129031181335449</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="11">
         <v>41305</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="12">
         <v>0.38076922297477722</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="12">
         <v>0.3115384578704834</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="12">
         <v>0.20769231021404269</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="A15" s="11">
         <v>41333</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="12">
         <v>0.38076922297477722</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="12">
         <v>0.3115384578704834</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="12">
         <v>0.20769231021404269</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+      <c r="A16" s="11">
         <v>41362</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>41394</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+      <c r="A18" s="11">
         <v>41425</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="12">
         <v>0.38076922297477722</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="12">
         <v>0.3115384578704834</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="12">
         <v>0.20769231021404269</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+      <c r="A19" s="11">
         <v>41453</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="12">
         <v>0.38999998569488531</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="12">
         <v>0.33000001311302191</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="12">
         <v>0.1800000071525574</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>41486</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="11">
         <v>41516</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="A22" s="11">
         <v>41547</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="11">
         <v>41578</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="11">
         <v>41607</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="A25" s="11">
         <v>41639</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="11">
         <v>41670</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="A27" s="11">
         <v>41698</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="A28" s="11">
         <v>41729</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="11">
         <v>41759</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="A30" s="11">
         <v>41789</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="12">
         <v>0.41785714030265808</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="12">
         <v>0.28928571939468378</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="12">
         <v>0.19285714626312259</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="11">
         <v>41820</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="12">
         <v>0.46799999475479132</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="12">
         <v>0.32400000095367432</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="12">
         <v>0.1080000028014183</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="11">
         <v>41851</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="12">
         <v>0.43043479323387152</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="12">
         <v>0.23478260636329651</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="12">
         <v>0.23478260636329651</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="A33" s="11">
         <v>41880</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="12">
         <v>0.49500000476837158</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="12">
         <v>0.27000001072883612</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="12">
         <v>0.135000005364418</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="A34" s="11">
         <v>41912</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="12">
         <v>0.33750000596046448</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="12">
         <v>0.33750000596046448</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="12">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="A35" s="11">
         <v>41943</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="12">
         <v>0.44999998807907099</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="12">
         <v>0.15000000596046451</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
+      <c r="A36" s="11">
         <v>41971</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="12">
         <v>0.36000001430511469</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="12">
         <v>0.36000001430511469</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="12">
         <v>0.1800000071525574</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="A37" s="11">
         <v>42004</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="12">
         <v>0.1800000071525574</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="12">
         <v>0.54000002145767212</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="12">
         <v>0.1800000071525574</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+      <c r="A38" s="11">
         <v>42034</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="12">
         <v>0.22499999403953549</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="12">
         <v>0.44999998807907099</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="12">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="A39" s="11">
         <v>42062</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="12">
         <v>9.0000003576278687E-2</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="12">
         <v>0.54000002145767212</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="12">
         <v>0.27000001072883612</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
+      <c r="A40" s="11">
         <v>42094</v>
       </c>
-      <c r="B40" s="3">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="B40" s="12">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+      <c r="A41" s="11">
         <v>42124</v>
       </c>
-      <c r="B41" s="3">
-        <v>0</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="B41" s="12">
+        <v>0</v>
+      </c>
+      <c r="C41" s="12">
         <v>0.44999998807907099</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="12">
         <v>0.44999998807907099</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="A42" s="11">
         <v>42153</v>
       </c>
-      <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="B42" s="12">
+        <v>0</v>
+      </c>
+      <c r="C42" s="12">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="A43" s="11">
         <v>42185</v>
       </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="B43" s="12">
+        <v>0</v>
+      </c>
+      <c r="C43" s="12">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
+      <c r="A44" s="11">
         <v>42216</v>
       </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="B44" s="12">
+        <v>0</v>
+      </c>
+      <c r="C44" s="12">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="A45" s="11">
         <v>42247</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="12">
         <v>6.923077255487442E-2</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="12">
         <v>0.41538462042808533</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="12">
         <v>0.41538462042808533</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
+      <c r="A46" s="11">
         <v>42277</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="12">
         <v>0.15000000596046451</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="12">
         <v>0.44999998807907099</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+      <c r="A47" s="11">
         <v>42307</v>
       </c>
-      <c r="B47" s="3">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="B47" s="12">
+        <v>0</v>
+      </c>
+      <c r="C47" s="12">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+      <c r="A48" s="11">
         <v>42338</v>
       </c>
-      <c r="B48" s="3">
-        <v>0</v>
-      </c>
-      <c r="C48" s="3">
+      <c r="B48" s="12">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
+      <c r="A49" s="11">
         <v>42369</v>
       </c>
-      <c r="B49" s="3">
-        <v>0</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="B49" s="12">
+        <v>0</v>
+      </c>
+      <c r="C49" s="12">
         <v>0.64516127109527588</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="12">
         <v>0.35483869910240168</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
+      <c r="A50" s="11">
         <v>42398</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="12">
         <v>0.21568627655506131</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="12">
         <v>0.39215686917304993</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="12">
         <v>0.39215686917304993</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+      <c r="A51" s="11">
         <v>42429</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="12">
         <v>0.18333333730697629</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="12">
         <v>0.48333331942558289</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
+      <c r="A52" s="11">
         <v>42460</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="12">
         <v>9.0000003576278687E-2</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="12">
         <v>0.54000002145767212</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="12">
         <v>0.27000001072883612</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="10">
+      <c r="A53" s="11">
         <v>42489</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="12">
         <v>9.0000003576278687E-2</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="12">
         <v>0.54000002145767212</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="12">
         <v>0.27000001072883612</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
+      <c r="A54" s="11">
         <v>42521</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="12">
         <v>9.0000003576278687E-2</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="12">
         <v>0.54000002145767212</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="12">
         <v>0.27000001072883612</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
+      <c r="A55" s="11">
         <v>42551</v>
       </c>
-      <c r="B55" s="3">
-        <v>0</v>
-      </c>
-      <c r="C55" s="3">
+      <c r="B55" s="12">
+        <v>0</v>
+      </c>
+      <c r="C55" s="12">
         <v>0.60000002384185791</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
+      <c r="A56" s="11">
         <v>42580</v>
       </c>
-      <c r="B56" s="3">
-        <v>0</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="B56" s="12">
+        <v>0</v>
+      </c>
+      <c r="C56" s="12">
         <v>0.67500001192092896</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="12">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
+      <c r="A57" s="11">
         <v>42613</v>
       </c>
-      <c r="B57" s="3">
-        <v>0</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="B57" s="12">
+        <v>0</v>
+      </c>
+      <c r="C57" s="12">
         <v>0.67500001192092896</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="12">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="10">
+      <c r="A58" s="11">
         <v>42643</v>
       </c>
-      <c r="B58" s="3">
-        <v>0</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="B58" s="12">
+        <v>0</v>
+      </c>
+      <c r="C58" s="12">
         <v>0.44999998807907099</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="12">
         <v>0.44999998807907099</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="10">
+      <c r="A59" s="11">
         <v>42674</v>
       </c>
-      <c r="B59" s="3">
-        <v>0</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="B59" s="12">
+        <v>0</v>
+      </c>
+      <c r="C59" s="12">
         <v>0.22499999403953549</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="12">
         <v>0.67500001192092896</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="10">
+      <c r="A60" s="11">
         <v>42704</v>
       </c>
-      <c r="B60" s="3">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="B60" s="12">
+        <v>0</v>
+      </c>
+      <c r="C60" s="12">
         <v>0.67500001192092896</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="12">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="10">
+      <c r="A61" s="11">
         <v>42734</v>
       </c>
-      <c r="B61" s="3">
-        <v>0</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="B61" s="12">
+        <v>0</v>
+      </c>
+      <c r="C61" s="12">
         <v>0.5</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="12">
         <v>0.5</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
+      <c r="A62" s="11">
         <v>42766</v>
       </c>
-      <c r="B62" s="3">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="B62" s="12">
+        <v>0</v>
+      </c>
+      <c r="C62" s="12">
         <v>0.5</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="12">
         <v>0.5</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="10">
+      <c r="A63" s="11">
         <v>42794</v>
       </c>
-      <c r="B63" s="3">
-        <v>0</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="B63" s="12">
+        <v>0</v>
+      </c>
+      <c r="C63" s="12">
         <v>0.5</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="12">
         <v>0.5</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="10">
+      <c r="A64" s="11">
         <v>42825</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="12">
         <v>0.2380952388048172</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="12">
         <v>0.2380952388048172</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="12">
         <v>0.52380955219268799</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="10">
+      <c r="A65" s="11">
         <v>42853</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="12">
         <v>0.40740740299224848</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="12">
         <v>0.18518517911434171</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="12">
         <v>0.40740740299224848</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="10">
+      <c r="A66" s="11">
         <v>42886</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="12">
         <v>0.40740740299224848</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="12">
         <v>0.18518517911434171</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="12">
         <v>0.40740740299224848</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="10">
+      <c r="A67" s="11">
         <v>42916</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="10">
+      <c r="A68" s="11">
         <v>42947</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="12">
         <v>0.40740740299224848</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="12">
         <v>0.18518517911434171</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="12">
         <v>0.40740740299224848</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="10">
+      <c r="A69" s="11">
         <v>42978</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="12">
         <v>0.40740740299224848</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="12">
         <v>0.18518517911434171</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="12">
         <v>0.40740740299224848</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="10">
+      <c r="A70" s="11">
         <v>43007</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="10">
+      <c r="A71" s="11">
         <v>43039</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="10">
+      <c r="A72" s="11">
         <v>43069</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="12">
         <v>0.44999998807907099</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="12">
         <v>0.22499999403953549</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="12">
         <v>0.22499999403953549</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="10">
+      <c r="A73" s="11">
         <v>43098</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="12">
         <v>0.39215686917304993</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="12">
         <v>0.39215686917304993</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="12">
         <v>0.21568627655506131</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="10">
+      <c r="A74" s="11">
         <v>43131</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="12">
         <v>0.40740740299224848</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="12">
         <v>0.40740740299224848</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="12">
         <v>0.18518517911434171</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="10">
+      <c r="A75" s="11">
         <v>43159</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="12">
         <v>0.4761904776096344</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="12">
         <v>0.26190477609634399</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="12">
         <v>0.26190477609634399</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="10">
+      <c r="A76" s="11">
         <v>43189</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="10">
+      <c r="A77" s="11">
         <v>43220</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="10">
+      <c r="A78" s="11">
         <v>43251</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="12">
         <v>0.3333333432674408</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="10">
+      <c r="A79" s="11">
         <v>43280</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="12">
         <v>0.42028984427452087</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="12">
         <v>0.28985506296157842</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="12">
         <v>0.28985506296157842</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="10">
+      <c r="A80" s="11">
         <v>43312</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="12">
         <v>0.42028984427452087</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="12">
         <v>0.28985506296157842</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="12">
         <v>0.28985506296157842</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
+      <c r="A81" s="11">
         <v>43343</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="12">
         <v>0.46666666865348821</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="12">
         <v>0.26666668057441711</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="12">
         <v>0.26666668057441711</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="10">
+      <c r="A82" s="11">
         <v>43371</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="12">
         <v>0.42028984427452087</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="12">
         <v>0.28985506296157842</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="12">
         <v>0.28985506296157842</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="10">
+      <c r="A83" s="11">
         <v>43404</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="12">
         <v>0.4166666567325592</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="12">
         <v>0.3452380895614624</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="12">
         <v>0.2380952388048172</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="10">
+      <c r="A84" s="11">
         <v>43434</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="12">
         <v>0.4166666567325592</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="12">
         <v>0.3452380895614624</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="12">
         <v>0.2380952388048172</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="10">
+      <c r="A85" s="11">
         <v>43465</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="12">
         <v>0.37634408473968511</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="12">
         <v>0.31182795763015753</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="12">
         <v>0.31182795763015753</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="10">
+      <c r="A86" s="11">
         <v>43496</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="12">
         <v>0.46666666865348821</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="12">
         <v>0.26666668057441711</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="12">
         <v>0.26666668057441711</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="10">
+      <c r="A87" s="11">
         <v>43524</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="12">
         <v>0.42028984427452087</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="12">
         <v>0.28985506296157842</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="12">
         <v>0.28985506296157842</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="10">
+      <c r="A88" s="11">
         <v>43553</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="10">
+      <c r="A89" s="11">
         <v>43585</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="10">
+      <c r="A90" s="11">
         <v>43616</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="12">
         <v>0.38571429252624512</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="12">
         <v>0.25714287161827087</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="12">
         <v>0.25714287161827087</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="10">
+      <c r="A91" s="11">
         <v>43644</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="12">
         <v>0.30000001192092901</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="12">
         <v>0.10000000149011611</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="10">
+      <c r="A92" s="11">
         <v>43677</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="12">
         <v>0.35087719559669489</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="12">
         <v>0.224561408162117</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="12">
         <v>0.224561408162117</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="12">
         <v>0.20000000298023221</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="10">
+      <c r="A93" s="11">
         <v>43707</v>
       </c>
-      <c r="B93" s="3">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="C93" s="3">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="D93" s="3">
-        <v>0.1939393877983093</v>
-      </c>
-      <c r="E93" s="3">
+      <c r="B93" s="12">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="C93" s="12">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="D93" s="12">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="E93" s="12">
         <v>0.20000000298023221</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="10">
+      <c r="A94" s="11">
         <v>43738</v>
       </c>
-      <c r="B94" s="3">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="C94" s="3">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="D94" s="3">
-        <v>0.1939393877983093</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="B94" s="12">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="C94" s="12">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="E94" s="12">
         <v>0.20000000298023221</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="10">
+      <c r="A95" s="11">
         <v>43769</v>
       </c>
-      <c r="B95" s="3">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="C95" s="3">
-        <v>0.30303031206130981</v>
-      </c>
-      <c r="D95" s="3">
-        <v>0.1939393877983093</v>
-      </c>
-      <c r="E95" s="3">
+      <c r="B95" s="12">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="C95" s="12">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0.20000000298023221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="11">
+        <v>43677</v>
+      </c>
+      <c r="B96" s="12">
+        <v>0.35087719559669489</v>
+      </c>
+      <c r="C96" s="12">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="D96" s="12">
+        <v>0.224561408162117</v>
+      </c>
+      <c r="E96" s="12">
         <v>0.20000000298023221</v>
       </c>
     </row>

--- a/strategy/全球购策略/data/产品历史占比.xlsx
+++ b/strategy/全球购策略/data/产品历史占比.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hfm-pubshare\HFM各部门共享\Harvest嘉实全体员工\策略孵化组\多重风管分组审核\zhangyang\江苏银行全球购策略\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\zjsxzy_in_js\strategy\全球购策略\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25965" windowHeight="11145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25965" windowHeight="11145" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
@@ -2991,88 +2991,144 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
+      <c r="A107" s="4">
+        <v>43801</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A108" s="4"/>
+      <c r="A108" s="4">
+        <v>43802</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A109" s="4"/>
+      <c r="A109" s="4">
+        <v>43803</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A110" s="4"/>
+      <c r="A110" s="4">
+        <v>43804</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A111" s="4"/>
+      <c r="A111" s="4">
+        <v>43805</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A112" s="4"/>
+      <c r="A112" s="4">
+        <v>43808</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="4"/>
+      <c r="A113" s="4">
+        <v>43809</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="4"/>
+      <c r="A114" s="4">
+        <v>43810</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="4"/>
+      <c r="A115" s="4">
+        <v>43811</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="4"/>
+      <c r="A116" s="4">
+        <v>43812</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="4"/>
+      <c r="A117" s="4">
+        <v>43815</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="4"/>
+      <c r="A118" s="4">
+        <v>43816</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="4"/>
+      <c r="A119" s="4">
+        <v>43817</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="4"/>
+      <c r="A120" s="4">
+        <v>43818</v>
+      </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" s="4"/>
+      <c r="A121" s="4">
+        <v>43819</v>
+      </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" s="4"/>
+      <c r="A122" s="4">
+        <v>43822</v>
+      </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" s="4"/>
+      <c r="A123" s="4">
+        <v>43823</v>
+      </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" s="4"/>
+      <c r="A124" s="4">
+        <v>43824</v>
+      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="4"/>
+      <c r="A125" s="4">
+        <v>43825</v>
+      </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" s="4"/>
+      <c r="A126" s="4">
+        <v>43826</v>
+      </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" s="4"/>
+      <c r="A127" s="4">
+        <v>43829</v>
+      </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" s="4"/>
+      <c r="A128" s="4">
+        <v>43830</v>
+      </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" s="4"/>
+      <c r="A129" s="4">
+        <v>43832</v>
+      </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="4"/>
+      <c r="A130" s="4">
+        <v>43833</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="4"/>
+      <c r="A131" s="4">
+        <v>43836</v>
+      </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="4"/>
+      <c r="A132" s="4">
+        <v>43837</v>
+      </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="4"/>
+      <c r="A133" s="4">
+        <v>43838</v>
+      </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="4"/>
+      <c r="A134" s="4">
+        <v>43839</v>
+      </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
@@ -23659,7 +23715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L284"/>
+  <dimension ref="A1:L312"/>
   <sheetViews>
     <sheetView topLeftCell="A252" workbookViewId="0">
       <selection activeCell="B270" sqref="B270:L284"/>
@@ -34460,6 +34516,146 @@
         <v>0</v>
       </c>
     </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A285" s="4">
+        <v>43801</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A286" s="4">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A287" s="4">
+        <v>43803</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A288" s="4">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" s="4">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" s="4">
+        <v>43808</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" s="4">
+        <v>43809</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" s="4">
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" s="4">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" s="4">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" s="4">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" s="4">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" s="4">
+        <v>43817</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" s="4">
+        <v>43818</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" s="4">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" s="4">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A301" s="4">
+        <v>43823</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A302" s="4">
+        <v>43824</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A303" s="4">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A304" s="4">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A305" s="4">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A306" s="4">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A307" s="4">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A308" s="4">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A309" s="4">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A310" s="4">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A311" s="4">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A312" s="4">
+        <v>43839</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34468,7 +34664,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1444"/>
+  <dimension ref="A1:E1472"/>
   <sheetViews>
     <sheetView topLeftCell="A1416" workbookViewId="0">
       <selection activeCell="B1430" sqref="B1430:E1444"/>
@@ -59024,6 +59220,146 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="1445" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1445" s="4">
+        <v>43801</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1446" s="4">
+        <v>43802</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1447" s="4">
+        <v>43803</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1448" s="4">
+        <v>43804</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1449" s="4">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1450" s="4">
+        <v>43808</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1451" s="4">
+        <v>43809</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1452" s="4">
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1453" s="4">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1454" s="4">
+        <v>43812</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1455" s="4">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1456" s="4">
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1457" s="4">
+        <v>43817</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1458" s="4">
+        <v>43818</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1459" s="4">
+        <v>43819</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1460" s="4">
+        <v>43822</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1461" s="4">
+        <v>43823</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1462" s="4">
+        <v>43824</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1463" s="4">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1464" s="4">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1465" s="4">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1466" s="4">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1467" s="4">
+        <v>43832</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1468" s="4">
+        <v>43833</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1469" s="4">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1470" s="4">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1471" s="4">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1472" s="4">
+        <v>43839</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59032,10 +59368,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F771"/>
+  <dimension ref="A1:F799"/>
   <sheetViews>
-    <sheetView topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="C766" sqref="C766"/>
+    <sheetView tabSelected="1" topLeftCell="A773" workbookViewId="0">
+      <selection activeCell="B772" sqref="B772:F799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -74462,6 +74798,566 @@
       </c>
       <c r="F771" s="7">
         <v>0.224561408162117</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A772" s="4">
+        <v>43801</v>
+      </c>
+      <c r="B772" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C772" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D772" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E772" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F772" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A773" s="4">
+        <v>43802</v>
+      </c>
+      <c r="B773" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C773" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D773" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E773" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F773" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A774" s="4">
+        <v>43803</v>
+      </c>
+      <c r="B774" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C774" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D774" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E774" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F774" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A775" s="4">
+        <v>43804</v>
+      </c>
+      <c r="B775" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C775" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D775" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E775" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F775" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A776" s="4">
+        <v>43805</v>
+      </c>
+      <c r="B776" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C776" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D776" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E776" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F776" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A777" s="4">
+        <v>43808</v>
+      </c>
+      <c r="B777" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C777" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D777" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E777" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F777" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A778" s="4">
+        <v>43809</v>
+      </c>
+      <c r="B778" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C778" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D778" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E778" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F778" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A779" s="4">
+        <v>43810</v>
+      </c>
+      <c r="B779" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C779" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D779" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E779" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F779" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A780" s="4">
+        <v>43811</v>
+      </c>
+      <c r="B780" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C780" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D780" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E780" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F780" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A781" s="4">
+        <v>43812</v>
+      </c>
+      <c r="B781" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C781" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D781" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E781" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F781" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A782" s="4">
+        <v>43815</v>
+      </c>
+      <c r="B782" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C782" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D782" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E782" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F782" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A783" s="4">
+        <v>43816</v>
+      </c>
+      <c r="B783" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C783" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D783" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E783" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F783" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A784" s="4">
+        <v>43817</v>
+      </c>
+      <c r="B784" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C784" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D784" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E784" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F784" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A785" s="4">
+        <v>43818</v>
+      </c>
+      <c r="B785" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C785" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D785" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E785" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F785" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A786" s="4">
+        <v>43819</v>
+      </c>
+      <c r="B786" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C786" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D786" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E786" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F786" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A787" s="4">
+        <v>43822</v>
+      </c>
+      <c r="B787" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C787" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D787" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E787" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F787" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A788" s="4">
+        <v>43823</v>
+      </c>
+      <c r="B788" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C788" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D788" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E788" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F788" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A789" s="4">
+        <v>43824</v>
+      </c>
+      <c r="B789" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C789" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D789" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E789" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F789" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A790" s="4">
+        <v>43825</v>
+      </c>
+      <c r="B790" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C790" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D790" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E790" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F790" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A791" s="4">
+        <v>43826</v>
+      </c>
+      <c r="B791" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C791" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D791" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E791" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F791" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A792" s="4">
+        <v>43829</v>
+      </c>
+      <c r="B792" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C792" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D792" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E792" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F792" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A793" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B793" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C793" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="D793" s="7">
+        <v>0.15151515603065491</v>
+      </c>
+      <c r="E793" s="7">
+        <v>0.30303031206130981</v>
+      </c>
+      <c r="F793" s="7">
+        <v>0.1939393877983093</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A794" s="4">
+        <v>43832</v>
+      </c>
+      <c r="B794" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C794" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D794" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E794" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F794" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A795" s="4">
+        <v>43833</v>
+      </c>
+      <c r="B795" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C795" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D795" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E795" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F795" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A796" s="4">
+        <v>43836</v>
+      </c>
+      <c r="B796" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C796" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D796" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E796" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F796" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A797" s="4">
+        <v>43837</v>
+      </c>
+      <c r="B797" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C797" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D797" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E797" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F797" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A798" s="4">
+        <v>43838</v>
+      </c>
+      <c r="B798" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C798" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D798" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E798" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F798" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A799" s="4">
+        <v>43839</v>
+      </c>
+      <c r="B799" s="7">
+        <v>0.20000000298023221</v>
+      </c>
+      <c r="C799" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="D799" s="7">
+        <v>0.13333334028720861</v>
+      </c>
+      <c r="E799" s="7">
+        <v>0.26666668057441711</v>
+      </c>
+      <c r="F799" s="7">
+        <v>0.26666668057441711</v>
       </c>
     </row>
   </sheetData>
